--- a/custom/Demo/test/sample-input-data/demo-analyses.xlsx
+++ b/custom/Demo/test/sample-input-data/demo-analyses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t xml:space="preserve">patient_ref</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t xml:space="preserve">analysis3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patientCon1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analysis4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analysis5</t>
   </si>
 </sst>
 </file>
@@ -85,7 +94,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -113,6 +122,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,6 +190,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -195,13 +213,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.14"/>
@@ -244,10 +262,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44621.375</v>
+        <v>43891.375</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44622.6666666667</v>
+        <v>43892.6666666667</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
@@ -267,10 +285,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44621.7083333333</v>
+        <v>43891.7083333333</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44622.6666666667</v>
+        <v>43892.6666666667</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
@@ -290,10 +308,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44622.5902777778</v>
+        <v>43892.5902777778</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44623.6666666667</v>
+        <v>43893.6666666667</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
@@ -303,6 +321,52 @@
       </c>
       <c r="G4" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44256.7083333333</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44257.6666666667</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44256.7083333333</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44257.6666666667</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/custom/Demo/test/sample-input-data/demo-analyses.xlsx
+++ b/custom/Demo/test/sample-input-data/demo-analyses.xlsx
@@ -58,22 +58,22 @@
     <t xml:space="preserve">molecular_analysis_carbapenemase_producing_enterobacteriaceae</t>
   </si>
   <si>
+    <t xml:space="preserve">negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analysis2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bacterial_culture_carbapenemase_producing_enterobacteriaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analysis3</t>
+  </si>
+  <si>
     <t xml:space="preserve">positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analysis2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bacterial_culture_carbapenemase_producing_enterobacteriaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analysis3</t>
   </si>
   <si>
     <t xml:space="preserve">patientCon1</t>
@@ -94,7 +94,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -122,11 +122,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +187,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -215,11 +210,11 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.14"/>
@@ -297,15 +292,15 @@
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>43892.5902777778</v>
@@ -320,7 +315,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,7 +338,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,7 +361,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
